--- a/data/trans_dic/P1422-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1422-Habitat-trans_dic.xlsx
@@ -664,7 +664,7 @@
         <v>0.006275122616041736</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.01421971548651257</v>
+        <v>0.01421971548651258</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.004340081768484141</v>
+        <v>0.004345872133698366</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.004123570104886179</v>
+        <v>0.003953181472837865</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0102654125617198</v>
+        <v>0.01045857016121452</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.001505276432292327</v>
+        <v>0.001518402211838936</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.006735668447012104</v>
+        <v>0.006754388535201183</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.004286646091868102</v>
+        <v>0.00442554965151583</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.002839286593994732</v>
+        <v>0.002901386627982456</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.009726900268400146</v>
+        <v>0.009841759711306103</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02104899992422059</v>
+        <v>0.02050867453440503</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01776069422850921</v>
+        <v>0.01802444009483245</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02861097788937447</v>
+        <v>0.02964113633368674</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01575226867329014</v>
+        <v>0.01522442794955462</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01175565683810354</v>
+        <v>0.01285460974923205</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01793855420827502</v>
+        <v>0.01765291008039156</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.01377132914276987</v>
+        <v>0.01381582984121293</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.01182690950597439</v>
+        <v>0.01172226798670605</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02049908108767939</v>
+        <v>0.02011768812842594</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.00486687312429553</v>
+        <v>0.00487821333391298</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0008600435493400538</v>
+        <v>0.000857793794965896</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.008079421687311659</v>
+        <v>0.008171537761690672</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.003131551845779599</v>
+        <v>0.003140278539465309</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.004078584644702226</v>
+        <v>0.003243344949995731</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.006830075300050897</v>
+        <v>0.006875236988460937</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.005085641106642672</v>
+        <v>0.005181925438530575</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.00295254590721147</v>
+        <v>0.003090789482913818</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.008786732024209275</v>
+        <v>0.0086640783461037</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01741586187943063</v>
+        <v>0.01699679859363848</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.008886992801394869</v>
+        <v>0.00787888223911363</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02209126827690193</v>
+        <v>0.02322734573299551</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01482486429255193</v>
+        <v>0.01560284150080185</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01767587366466808</v>
+        <v>0.01749915526007035</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01628674307552257</v>
+        <v>0.01659154019781791</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01360350446744227</v>
+        <v>0.01344477787608093</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01033656818462298</v>
+        <v>0.01093318128085016</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01712003905023898</v>
+        <v>0.01701224678842762</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.003858300520589354</v>
+        <v>0.003886840792745205</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.002355412314688991</v>
+        <v>0.002306241840131643</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.00658735502848764</v>
+        <v>0.006684506508136917</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.001423570003831124</v>
+        <v>0.001383571301549687</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.003203763927726659</v>
+        <v>0.003167567715540371</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.00385048181247222</v>
+        <v>0.003500637793875543</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.001408190060549703</v>
+        <v>0.001435990109485352</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.006179977117633198</v>
+        <v>0.005955116156668248</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02475363911688796</v>
+        <v>0.02315039537569376</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01883804876196091</v>
+        <v>0.01774233943998838</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02076885327641164</v>
+        <v>0.02261357942554034</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01379990327355945</v>
+        <v>0.01360241529231501</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.006541216502724357</v>
+        <v>0.009704313890527273</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.01522420610396843</v>
+        <v>0.01451643128544483</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01505166464948651</v>
+        <v>0.01394933924297418</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.009361779539498242</v>
+        <v>0.009217931965506177</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01568000660090266</v>
+        <v>0.01493442471229402</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.007989612162591789</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.008432767115152832</v>
+        <v>0.008432767115152831</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.008695405641941916</v>
@@ -991,7 +991,7 @@
         <v>0.008122375340501758</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.01008520342037689</v>
+        <v>0.0100852034203769</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.004300661619881773</v>
+        <v>0.004293832520162881</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.003979287015355444</v>
+        <v>0.003870361663292938</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.004486481657808842</v>
+        <v>0.004421511458123242</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.004005059377587573</v>
+        <v>0.003965571612764925</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.003648686594969099</v>
+        <v>0.003343925302211815</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.006951955385991131</v>
+        <v>0.006860258602751968</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.005481539454611594</v>
+        <v>0.005532816758957598</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.00481868300489722</v>
+        <v>0.004767781585494652</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.007137580819001484</v>
+        <v>0.006897694305782662</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01967443098111394</v>
+        <v>0.01991059045812088</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01618115180470682</v>
+        <v>0.01505926532784459</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01477089816054</v>
+        <v>0.01518745146812397</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01631966829084214</v>
+        <v>0.01622881899541319</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.01762444651623521</v>
+        <v>0.01689719930550681</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0171325895133407</v>
+        <v>0.01692657028726611</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0153768445655452</v>
+        <v>0.01434015686180652</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.01365091176073093</v>
+        <v>0.013085008552893</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01405826607010865</v>
+        <v>0.01381001018674601</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.006651291581707361</v>
+        <v>0.00642069125283814</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.003998457391142097</v>
+        <v>0.004021652876140054</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.009697682073014939</v>
+        <v>0.009445945279275846</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.004442681543968316</v>
+        <v>0.004766138290239293</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.003459998997012412</v>
+        <v>0.003376992085204773</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.007994894999724122</v>
+        <v>0.008094529620521167</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.006210465108597622</v>
+        <v>0.006521217255817376</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.004399922747766326</v>
+        <v>0.004363014154180438</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.009526988193856027</v>
+        <v>0.009556331511637747</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01413342825751105</v>
+        <v>0.01417503574214527</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.009375302270314204</v>
+        <v>0.009375123287530464</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01683890325641329</v>
+        <v>0.01684194234977896</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.01038196422814025</v>
+        <v>0.01071049260914045</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.009385772421166947</v>
+        <v>0.00920330434604541</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.01336317397680795</v>
+        <v>0.0134168526528634</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.0110983116935818</v>
+        <v>0.01118995083157292</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.008543812726676642</v>
+        <v>0.008302921142464332</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01376669724732113</v>
+        <v>0.01367628259453038</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3053</v>
+        <v>3057</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2783</v>
+        <v>2668</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7090</v>
+        <v>7224</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1049</v>
+        <v>1058</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4935</v>
+        <v>4949</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>6004</v>
+        <v>6198</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3826</v>
+        <v>3910</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>13846</v>
+        <v>14009</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>14807</v>
+        <v>14427</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>11985</v>
+        <v>12163</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>19762</v>
+        <v>20473</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>10980</v>
+        <v>10612</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>7910</v>
+        <v>8649</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>13144</v>
+        <v>12935</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>19287</v>
+        <v>19349</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>15938</v>
+        <v>15797</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>29179</v>
+        <v>28636</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4954</v>
+        <v>4966</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>8475</v>
+        <v>8571</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3222</v>
+        <v>3231</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>4254</v>
+        <v>3383</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>7309</v>
+        <v>7358</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>10410</v>
+        <v>10607</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>6098</v>
+        <v>6384</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>18620</v>
+        <v>18360</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>17728</v>
+        <v>17302</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>9086</v>
+        <v>8056</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>23172</v>
+        <v>24364</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>15254</v>
+        <v>16055</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>18434</v>
+        <v>18250</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>17430</v>
+        <v>17756</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>27845</v>
+        <v>27520</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>21349</v>
+        <v>22581</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>36279</v>
+        <v>36051</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2923</v>
+        <v>2945</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1789</v>
+        <v>1752</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>5266</v>
+        <v>5343</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1106</v>
+        <v>1075</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2596</v>
+        <v>2566</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>5910</v>
+        <v>5373</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>2175</v>
+        <v>2218</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>9947</v>
+        <v>9585</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>18754</v>
+        <v>17539</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>14308</v>
+        <v>13476</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>16602</v>
+        <v>18077</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>10725</v>
+        <v>10571</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5135</v>
+        <v>7618</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>12335</v>
+        <v>11761</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>23101</v>
+        <v>21409</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>14460</v>
+        <v>14238</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>25238</v>
+        <v>24038</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4076</v>
+        <v>4069</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3731</v>
+        <v>3629</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4442</v>
+        <v>4378</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>4213</v>
+        <v>4171</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3808</v>
+        <v>3490</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>7770</v>
+        <v>7667</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>10961</v>
+        <v>11064</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>9547</v>
+        <v>9447</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>15044</v>
+        <v>14538</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>18646</v>
+        <v>18870</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>15171</v>
+        <v>14119</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>14624</v>
+        <v>15037</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>17167</v>
+        <v>17071</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>18396</v>
+        <v>17637</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>19148</v>
+        <v>18918</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>30748</v>
+        <v>28675</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>27047</v>
+        <v>25926</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>29631</v>
+        <v>29107</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>22793</v>
+        <v>22002</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>13572</v>
+        <v>13651</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>34224</v>
+        <v>33335</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>15794</v>
+        <v>16944</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>12264</v>
+        <v>11970</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>29827</v>
+        <v>30199</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>43361</v>
+        <v>45530</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>30531</v>
+        <v>30274</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>69164</v>
+        <v>69377</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>48432</v>
+        <v>48575</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>31823</v>
+        <v>31822</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>59425</v>
+        <v>59436</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>36909</v>
+        <v>38077</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>33268</v>
+        <v>32621</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>49855</v>
+        <v>50055</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>77487</v>
+        <v>78127</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>59285</v>
+        <v>57613</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>99943</v>
+        <v>99287</v>
       </c>
     </row>
     <row r="24">
